--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N2">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O2">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P2">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q2">
-        <v>52.1981532256947</v>
+        <v>0.26831998561925</v>
       </c>
       <c r="R2">
-        <v>52.1981532256947</v>
+        <v>1.073279942477</v>
       </c>
       <c r="S2">
-        <v>0.008920021567724968</v>
+        <v>3.921778415690457E-05</v>
       </c>
       <c r="T2">
-        <v>0.008920021567724968</v>
+        <v>2.636667523477823E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N3">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P3">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q3">
-        <v>640.8516252412132</v>
+        <v>61.88813440281717</v>
       </c>
       <c r="R3">
-        <v>640.8516252412132</v>
+        <v>371.328806416903</v>
       </c>
       <c r="S3">
-        <v>0.1095136506869615</v>
+        <v>0.009045600875692117</v>
       </c>
       <c r="T3">
-        <v>0.1095136506869615</v>
+        <v>0.009122229584870982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6542892654842</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>11.6542892654842</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.02963886453545362</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.02963886453545362</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P4">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q4">
-        <v>13.06295720637842</v>
+        <v>0.1420881809746666</v>
       </c>
       <c r="R4">
-        <v>13.06295720637842</v>
+        <v>0.8525290858479999</v>
       </c>
       <c r="S4">
-        <v>0.002232298516680195</v>
+        <v>2.076768005130623E-05</v>
       </c>
       <c r="T4">
-        <v>0.002232298516680195</v>
+        <v>2.094361093050827E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6542892654842</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>11.6542892654842</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.02963886453545362</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.02963886453545362</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N5">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O5">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P5">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q5">
-        <v>160.3776539749911</v>
+        <v>0.7332339559696667</v>
       </c>
       <c r="R5">
-        <v>160.3776539749911</v>
+        <v>4.399403735818001</v>
       </c>
       <c r="S5">
-        <v>0.02740656601877343</v>
+        <v>0.0001071698440776476</v>
       </c>
       <c r="T5">
-        <v>0.02740656601877343</v>
+        <v>0.0001080777203953656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.734883387419</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>124.734883387419</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.3172222884937735</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.3172222884937735</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N6">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O6">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P6">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q6">
-        <v>139.811738555192</v>
+        <v>6.757230436195167</v>
       </c>
       <c r="R6">
-        <v>139.811738555192</v>
+        <v>40.54338261717101</v>
       </c>
       <c r="S6">
-        <v>0.02389210434210413</v>
+        <v>0.0009876402018044687</v>
       </c>
       <c r="T6">
-        <v>0.02389210434210413</v>
+        <v>0.0009960068758195478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.734883387419</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>124.734883387419</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.3172222884937735</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.3172222884937735</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N7">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O7">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P7">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q7">
-        <v>1716.508618484786</v>
+        <v>731.3138922324192</v>
       </c>
       <c r="R7">
-        <v>1716.508618484786</v>
+        <v>2925.255568929677</v>
       </c>
       <c r="S7">
-        <v>0.2933301841516694</v>
+        <v>0.1068892065953479</v>
       </c>
       <c r="T7">
-        <v>0.2933301841516694</v>
+        <v>0.07186313701781309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>158.541844920009</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>158.541844920009</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.4031992134176544</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.4031992134176544</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.12087120104923</v>
+        <v>0.0057055</v>
       </c>
       <c r="N8">
-        <v>1.12087120104923</v>
+        <v>0.011411</v>
       </c>
       <c r="O8">
-        <v>0.07531660040518587</v>
+        <v>0.000334938228146736</v>
       </c>
       <c r="P8">
-        <v>0.07531660040518587</v>
+        <v>0.000321009433024368</v>
       </c>
       <c r="Q8">
-        <v>177.7049881320513</v>
+        <v>0.07035603626116667</v>
       </c>
       <c r="R8">
-        <v>177.7049881320513</v>
+        <v>0.422136217567</v>
       </c>
       <c r="S8">
-        <v>0.03036759404066273</v>
+        <v>1.028327367362468E-05</v>
       </c>
       <c r="T8">
-        <v>0.03036759404066273</v>
+        <v>1.037038717758884E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>158.541844920009</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>158.541844920009</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.4031992134176544</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.4031992134176544</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.7612556477358</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N9">
-        <v>13.7612556477358</v>
+        <v>3.947929</v>
       </c>
       <c r="O9">
-        <v>0.9246833995948142</v>
+        <v>0.07725366424848044</v>
       </c>
       <c r="P9">
-        <v>0.9246833995948142</v>
+        <v>0.1110614713794111</v>
       </c>
       <c r="Q9">
-        <v>2181.734858807927</v>
+        <v>16.22765377737922</v>
       </c>
       <c r="R9">
-        <v>2181.734858807927</v>
+        <v>146.048883996413</v>
       </c>
       <c r="S9">
-        <v>0.3728316193769917</v>
+        <v>0.002371842044287057</v>
       </c>
       <c r="T9">
-        <v>0.3728316193769917</v>
+        <v>0.003587902224137337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.9355676810463</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>38.9355676810463</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.09901985353386301</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.09901985353386301</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.12087120104923</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N10">
-        <v>1.12087120104923</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O10">
-        <v>0.07531660040518587</v>
+        <v>0.000177365705601146</v>
       </c>
       <c r="P10">
-        <v>0.07531660040518587</v>
+        <v>0.0002549846201851609</v>
       </c>
       <c r="Q10">
-        <v>43.64175651018795</v>
+        <v>0.03725686400088889</v>
       </c>
       <c r="R10">
-        <v>43.64175651018795</v>
+        <v>0.335311776008</v>
       </c>
       <c r="S10">
-        <v>0.007457838740789992</v>
+        <v>5.445481995602726E-06</v>
       </c>
       <c r="T10">
-        <v>0.007457838740789992</v>
+        <v>8.237419102415676E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.9355676810463</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>38.9355676810463</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.09901985353386301</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.09901985353386301</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>13.7612556477358</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N11">
-        <v>13.7612556477358</v>
+        <v>0.046774</v>
       </c>
       <c r="O11">
-        <v>0.9246833995948142</v>
+        <v>0.0009152806171434249</v>
       </c>
       <c r="P11">
-        <v>0.9246833995948142</v>
+        <v>0.001315826414887546</v>
       </c>
       <c r="Q11">
-        <v>535.8023006485979</v>
+        <v>0.1922608734308889</v>
       </c>
       <c r="R11">
-        <v>535.8023006485979</v>
+        <v>1.730347860878</v>
       </c>
       <c r="S11">
-        <v>0.09156201479307302</v>
+        <v>2.810094603511937E-05</v>
       </c>
       <c r="T11">
-        <v>0.09156201479307302</v>
+        <v>4.250849967965477E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.7738529438299</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>12.7738529438299</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03248610776456904</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.03248610776456904</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.12087120104923</v>
+        <v>0.1436843333333333</v>
       </c>
       <c r="N12">
-        <v>1.12087120104923</v>
+        <v>0.431053</v>
       </c>
       <c r="O12">
-        <v>0.07531660040518587</v>
+        <v>0.008434909476664915</v>
       </c>
       <c r="P12">
-        <v>0.07531660040518587</v>
+        <v>0.01212620095815028</v>
       </c>
       <c r="Q12">
-        <v>14.31784389117686</v>
+        <v>1.771809686471222</v>
       </c>
       <c r="R12">
-        <v>14.31784389117686</v>
+        <v>15.946287178241</v>
       </c>
       <c r="S12">
-        <v>0.002446743197223852</v>
+        <v>0.0002589685956145788</v>
       </c>
       <c r="T12">
-        <v>0.002446743197223852</v>
+        <v>0.0003917436249286832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,1540 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.7738529438299</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>12.7738529438299</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03248610776456904</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.03248610776456904</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7612556477358</v>
+        <v>15.5505055</v>
       </c>
       <c r="N13">
-        <v>13.7612556477358</v>
+        <v>31.101011</v>
       </c>
       <c r="O13">
-        <v>0.9246833995948142</v>
+        <v>0.9128838417239634</v>
       </c>
       <c r="P13">
-        <v>0.9246833995948142</v>
+        <v>0.8749205071943416</v>
       </c>
       <c r="Q13">
-        <v>175.7842559666258</v>
+        <v>191.7574145714612</v>
       </c>
       <c r="R13">
-        <v>175.7842559666258</v>
+        <v>1150.544487428767</v>
       </c>
       <c r="S13">
-        <v>0.03003936456734519</v>
+        <v>0.02802736023480953</v>
       </c>
       <c r="T13">
-        <v>0.03003936456734519</v>
+        <v>0.02826479061295676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H14">
+        <v>387.148232</v>
+      </c>
+      <c r="I14">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J14">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0057055</v>
+      </c>
+      <c r="N14">
+        <v>0.011411</v>
+      </c>
+      <c r="O14">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P14">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q14">
+        <v>0.7362914125586666</v>
+      </c>
+      <c r="R14">
+        <v>4.417748475352</v>
+      </c>
+      <c r="S14">
+        <v>0.0001076167234716658</v>
+      </c>
+      <c r="T14">
+        <v>0.0001085283854738942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H15">
+        <v>387.148232</v>
+      </c>
+      <c r="I15">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J15">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.947929</v>
+      </c>
+      <c r="O15">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P15">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q15">
+        <v>169.8259702679476</v>
+      </c>
+      <c r="R15">
+        <v>1528.433732411528</v>
+      </c>
+      <c r="S15">
+        <v>0.02482184929622119</v>
+      </c>
+      <c r="T15">
+        <v>0.0375481868666695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H16">
+        <v>387.148232</v>
+      </c>
+      <c r="I16">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J16">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P16">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q16">
+        <v>0.3899012860942221</v>
+      </c>
+      <c r="R16">
+        <v>3.509111574848</v>
+      </c>
+      <c r="S16">
+        <v>5.698816823224248E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.620640486682824E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H17">
+        <v>387.148232</v>
+      </c>
+      <c r="I17">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J17">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.046774</v>
+      </c>
+      <c r="O17">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P17">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q17">
+        <v>2.012052378174222</v>
+      </c>
+      <c r="R17">
+        <v>18.108471403568</v>
+      </c>
+      <c r="S17">
+        <v>0.0002940825883599857</v>
+      </c>
+      <c r="T17">
+        <v>0.0004448608099339171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H18">
+        <v>387.148232</v>
+      </c>
+      <c r="I18">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J18">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.431053</v>
+      </c>
+      <c r="O18">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P18">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q18">
+        <v>18.54237853869956</v>
+      </c>
+      <c r="R18">
+        <v>166.881406848296</v>
+      </c>
+      <c r="S18">
+        <v>0.002710163380517743</v>
+      </c>
+      <c r="T18">
+        <v>0.004099683300646615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>129.0494106666667</v>
+      </c>
+      <c r="H19">
+        <v>387.148232</v>
+      </c>
+      <c r="I19">
+        <v>0.3213031969122349</v>
+      </c>
+      <c r="J19">
+        <v>0.3380847237148192</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5505055</v>
+      </c>
+      <c r="N19">
+        <v>31.101011</v>
+      </c>
+      <c r="O19">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P19">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q19">
+        <v>2006.783570343759</v>
+      </c>
+      <c r="R19">
+        <v>12040.70142206255</v>
+      </c>
+      <c r="S19">
+        <v>0.2933124967554321</v>
+      </c>
+      <c r="T19">
+        <v>0.2957972579472284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H20">
+        <v>475.930603</v>
+      </c>
+      <c r="I20">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J20">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0057055</v>
+      </c>
+      <c r="N20">
+        <v>0.011411</v>
+      </c>
+      <c r="O20">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P20">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q20">
+        <v>0.9051406851388332</v>
+      </c>
+      <c r="R20">
+        <v>5.430844110832999</v>
+      </c>
+      <c r="S20">
+        <v>0.0001322958181422204</v>
+      </c>
+      <c r="T20">
+        <v>0.0001334165460975343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H21">
+        <v>475.930603</v>
+      </c>
+      <c r="I21">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J21">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.947929</v>
+      </c>
+      <c r="O21">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P21">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q21">
+        <v>208.7711366190208</v>
+      </c>
+      <c r="R21">
+        <v>1878.940229571187</v>
+      </c>
+      <c r="S21">
+        <v>0.03051409441313341</v>
+      </c>
+      <c r="T21">
+        <v>0.0461588862867665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H22">
+        <v>475.930603</v>
+      </c>
+      <c r="I22">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J22">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P22">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q22">
+        <v>0.479314998399111</v>
+      </c>
+      <c r="R22">
+        <v>4.313834985591999</v>
+      </c>
+      <c r="S22">
+        <v>7.005692142909388E-05</v>
+      </c>
+      <c r="T22">
+        <v>0.0001059756001952546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H23">
+        <v>475.930603</v>
+      </c>
+      <c r="I23">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J23">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.046774</v>
+      </c>
+      <c r="O23">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P23">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q23">
+        <v>2.473464224969111</v>
+      </c>
+      <c r="R23">
+        <v>22.261178024722</v>
+      </c>
+      <c r="S23">
+        <v>0.0003615227761390597</v>
+      </c>
+      <c r="T23">
+        <v>0.0005468780586421934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H24">
+        <v>475.930603</v>
+      </c>
+      <c r="I24">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J24">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.431053</v>
+      </c>
+      <c r="O24">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P24">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q24">
+        <v>22.79459046832877</v>
+      </c>
+      <c r="R24">
+        <v>205.151314214959</v>
+      </c>
+      <c r="S24">
+        <v>0.003331668816502119</v>
+      </c>
+      <c r="T24">
+        <v>0.005039838966346548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>158.6435343333333</v>
+      </c>
+      <c r="H25">
+        <v>475.930603</v>
+      </c>
+      <c r="I25">
+        <v>0.3949857228129294</v>
+      </c>
+      <c r="J25">
+        <v>0.4156156560277983</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.5505055</v>
+      </c>
+      <c r="N25">
+        <v>31.101011</v>
+      </c>
+      <c r="O25">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P25">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q25">
+        <v>2466.987153189938</v>
+      </c>
+      <c r="R25">
+        <v>14801.92291913963</v>
+      </c>
+      <c r="S25">
+        <v>0.3605760840675835</v>
+      </c>
+      <c r="T25">
+        <v>0.3636306605697503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>41.810285</v>
+      </c>
+      <c r="H26">
+        <v>125.430855</v>
+      </c>
+      <c r="I26">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J26">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0057055</v>
+      </c>
+      <c r="N26">
+        <v>0.011411</v>
+      </c>
+      <c r="O26">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P26">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q26">
+        <v>0.2385485810675</v>
+      </c>
+      <c r="R26">
+        <v>1.431291486405</v>
+      </c>
+      <c r="S26">
+        <v>3.486638068219205E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.516174699142144E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>41.810285</v>
+      </c>
+      <c r="H27">
+        <v>125.430855</v>
+      </c>
+      <c r="I27">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J27">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.947929</v>
+      </c>
+      <c r="O27">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P27">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q27">
+        <v>55.02134554992167</v>
+      </c>
+      <c r="R27">
+        <v>495.1921099492951</v>
+      </c>
+      <c r="S27">
+        <v>0.008041947560556527</v>
+      </c>
+      <c r="T27">
+        <v>0.01216511091386342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>41.810285</v>
+      </c>
+      <c r="H28">
+        <v>125.430855</v>
+      </c>
+      <c r="I28">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J28">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P28">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q28">
+        <v>0.1263228077466667</v>
+      </c>
+      <c r="R28">
+        <v>1.13690526972</v>
+      </c>
+      <c r="S28">
+        <v>1.846340516480523E-05</v>
+      </c>
+      <c r="T28">
+        <v>2.792972348876031E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>41.810285</v>
+      </c>
+      <c r="H29">
+        <v>125.430855</v>
+      </c>
+      <c r="I29">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J29">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.046774</v>
+      </c>
+      <c r="O29">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P29">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q29">
+        <v>0.6518780901966666</v>
+      </c>
+      <c r="R29">
+        <v>5.866902811770001</v>
+      </c>
+      <c r="S29">
+        <v>9.527882978581201E-05</v>
+      </c>
+      <c r="T29">
+        <v>0.0001441289592302819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>41.810285</v>
+      </c>
+      <c r="H30">
+        <v>125.430855</v>
+      </c>
+      <c r="I30">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J30">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.431053</v>
+      </c>
+      <c r="O30">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P30">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q30">
+        <v>6.007482926701667</v>
+      </c>
+      <c r="R30">
+        <v>54.06734634031501</v>
+      </c>
+      <c r="S30">
+        <v>0.0008780567284316848</v>
+      </c>
+      <c r="T30">
+        <v>0.001328242619042432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>41.810285</v>
+      </c>
+      <c r="H31">
+        <v>125.430855</v>
+      </c>
+      <c r="I31">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J31">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.5505055</v>
+      </c>
+      <c r="N31">
+        <v>31.101011</v>
+      </c>
+      <c r="O31">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P31">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q31">
+        <v>650.1710668490675</v>
+      </c>
+      <c r="R31">
+        <v>3901.026401094405</v>
+      </c>
+      <c r="S31">
+        <v>0.09502933039409715</v>
+      </c>
+      <c r="T31">
+        <v>0.09583435982467926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.780919</v>
+      </c>
+      <c r="H32">
+        <v>25.561838</v>
+      </c>
+      <c r="I32">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J32">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0057055</v>
+      </c>
+      <c r="N32">
+        <v>0.011411</v>
+      </c>
+      <c r="O32">
+        <v>0.000334938228146736</v>
+      </c>
+      <c r="P32">
+        <v>0.000321009433024368</v>
+      </c>
+      <c r="Q32">
+        <v>0.0729215333545</v>
+      </c>
+      <c r="R32">
+        <v>0.291686133418</v>
+      </c>
+      <c r="S32">
+        <v>1.065824802012857E-05</v>
+      </c>
+      <c r="T32">
+        <v>7.165692049150922E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.780919</v>
+      </c>
+      <c r="H33">
+        <v>25.561838</v>
+      </c>
+      <c r="I33">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J33">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.315976333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.947929</v>
+      </c>
+      <c r="O33">
+        <v>0.07725366424848044</v>
+      </c>
+      <c r="P33">
+        <v>0.1110614713794111</v>
+      </c>
+      <c r="Q33">
+        <v>16.81938692225033</v>
+      </c>
+      <c r="R33">
+        <v>100.916321533502</v>
+      </c>
+      <c r="S33">
+        <v>0.002458330058590143</v>
+      </c>
+      <c r="T33">
+        <v>0.002479155503103353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.780919</v>
+      </c>
+      <c r="H34">
+        <v>25.561838</v>
+      </c>
+      <c r="I34">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J34">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.000177365705601146</v>
+      </c>
+      <c r="P34">
+        <v>0.0002549846201851609</v>
+      </c>
+      <c r="Q34">
+        <v>0.03861541660533333</v>
+      </c>
+      <c r="R34">
+        <v>0.231692499632</v>
+      </c>
+      <c r="S34">
+        <v>5.644048728095427E-06</v>
+      </c>
+      <c r="T34">
+        <v>5.691861601393739E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.780919</v>
+      </c>
+      <c r="H35">
+        <v>25.561838</v>
+      </c>
+      <c r="I35">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J35">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01559133333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.046774</v>
+      </c>
+      <c r="O35">
+        <v>0.0009152806171434249</v>
+      </c>
+      <c r="P35">
+        <v>0.001315826414887546</v>
+      </c>
+      <c r="Q35">
+        <v>0.1992715684353334</v>
+      </c>
+      <c r="R35">
+        <v>1.195629410612</v>
+      </c>
+      <c r="S35">
+        <v>2.912563274580048E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.937236700613314E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.780919</v>
+      </c>
+      <c r="H36">
+        <v>25.561838</v>
+      </c>
+      <c r="I36">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J36">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.1436843333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.431053</v>
+      </c>
+      <c r="O36">
+        <v>0.008434909476664915</v>
+      </c>
+      <c r="P36">
+        <v>0.01212620095815028</v>
+      </c>
+      <c r="Q36">
+        <v>1.836417825902333</v>
+      </c>
+      <c r="R36">
+        <v>11.018506955414</v>
+      </c>
+      <c r="S36">
+        <v>0.0002684117537943202</v>
+      </c>
+      <c r="T36">
+        <v>0.0002706855713664581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.780919</v>
+      </c>
+      <c r="H37">
+        <v>25.561838</v>
+      </c>
+      <c r="I37">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J37">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.5505055</v>
+      </c>
+      <c r="N37">
+        <v>31.101011</v>
+      </c>
+      <c r="O37">
+        <v>0.9128838417239634</v>
+      </c>
+      <c r="P37">
+        <v>0.8749205071943416</v>
+      </c>
+      <c r="Q37">
+        <v>198.7497512045545</v>
+      </c>
+      <c r="R37">
+        <v>794.9990048182181</v>
+      </c>
+      <c r="S37">
+        <v>0.02904936367669328</v>
+      </c>
+      <c r="T37">
+        <v>0.01953030122191354</v>
       </c>
     </row>
   </sheetData>
